--- a/data/trans_orig/P25C_R2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4694</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1779</v>
+        <v>1889</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9962</v>
+        <v>10205</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05352731678682227</v>
+        <v>0.05352731678682225</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02028638642083976</v>
+        <v>0.0215453939999565</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1135972536142134</v>
+        <v>0.1163776966713152</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>2011</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5609</v>
+        <v>5546</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03937199744428952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01183328983907107</v>
+        <v>0.01151395452557121</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1098180642276297</v>
+        <v>0.1085887860876784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>6705</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3210</v>
+        <v>2905</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11906</v>
+        <v>12257</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04831735460427983</v>
+        <v>0.04831735460427982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02313571458402108</v>
+        <v>0.02093590662953737</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08580293031975236</v>
+        <v>0.08832705800071418</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>82998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77730</v>
+        <v>77487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85913</v>
+        <v>85803</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9464726832131778</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8864027463857876</v>
+        <v>0.8836223033286842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9797136135791604</v>
+        <v>0.9784546060000415</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -833,19 +833,19 @@
         <v>49062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45464</v>
+        <v>45527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50469</v>
+        <v>50485</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9606280025557103</v>
+        <v>0.9606280025557106</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8901819357723704</v>
+        <v>0.8914112139123217</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9881667101609288</v>
+        <v>0.9884860454744289</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>154</v>
@@ -854,19 +854,19 @@
         <v>132060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126859</v>
+        <v>126508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>135555</v>
+        <v>135860</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9516826453957201</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9141970696802476</v>
+        <v>0.9116729419992855</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9768642854159789</v>
+        <v>0.9790640933704624</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>6001</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2762</v>
+        <v>2667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11106</v>
+        <v>11419</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03088184956089904</v>
+        <v>0.03088184956089905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01421604477422676</v>
+        <v>0.01372424818372528</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05715216850794166</v>
+        <v>0.05876255786640035</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -979,19 +979,19 @@
         <v>5025</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9363</v>
+        <v>9701</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05725725603267508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0266152934992468</v>
+        <v>0.02663014760922329</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1066947939314134</v>
+        <v>0.1105486628740228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1000,19 +1000,19 @@
         <v>11026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6382</v>
+        <v>6450</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17349</v>
+        <v>17957</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0390875723296738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02262672834630896</v>
+        <v>0.02286493808804444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0615058441948779</v>
+        <v>0.06365904876974494</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>188316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>183211</v>
+        <v>182898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>191555</v>
+        <v>191650</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9691181504391009</v>
+        <v>0.969118150439101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9428478314920584</v>
+        <v>0.9412374421335996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9857839552257733</v>
+        <v>0.9862757518162747</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>118</v>
@@ -1050,19 +1050,19 @@
         <v>82732</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>78394</v>
+        <v>78056</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85421</v>
+        <v>85420</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9427427439673252</v>
+        <v>0.9427427439673249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8933052060685864</v>
+        <v>0.8894513371259772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9733847065007531</v>
+        <v>0.973369852390777</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>335</v>
@@ -1071,19 +1071,19 @@
         <v>271048</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>264725</v>
+        <v>264117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>275692</v>
+        <v>275624</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9609124276703261</v>
+        <v>0.9609124276703264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9384941558051207</v>
+        <v>0.9363409512302551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9773732716536909</v>
+        <v>0.9771350619119556</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3205</v>
+        <v>3337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00559684650071489</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01926603287361899</v>
+        <v>0.02005702865267921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1196,19 +1196,19 @@
         <v>4045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1692</v>
+        <v>1609</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8598</v>
+        <v>9118</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04409194896104293</v>
+        <v>0.04409194896104292</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01843951319752853</v>
+        <v>0.01753979008334122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09370978124302677</v>
+        <v>0.09938049186556332</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1217,19 +1217,19 @@
         <v>4976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2332</v>
+        <v>2085</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10346</v>
+        <v>9363</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01928092501009732</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009035419415571162</v>
+        <v>0.008078763525506735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04008293636952565</v>
+        <v>0.03627552999820539</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>165423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>163149</v>
+        <v>163017</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>166354</v>
@@ -1255,7 +1255,7 @@
         <v>0.994403153499285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9807339671263809</v>
+        <v>0.9799429713473208</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>87705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83152</v>
+        <v>82632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90058</v>
+        <v>90141</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9559080510389572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9062902187569732</v>
+        <v>0.9006195081344364</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9815604868024715</v>
+        <v>0.9824602099166589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>326</v>
@@ -1288,19 +1288,19 @@
         <v>253127</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>247757</v>
+        <v>248740</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>255771</v>
+        <v>256018</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9807190749899026</v>
+        <v>0.9807190749899027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9599170636304744</v>
+        <v>0.9637244700017945</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9909645805844287</v>
+        <v>0.9919212364744933</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7759</v>
+        <v>7546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01275693380089518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003256300296762258</v>
+        <v>0.00332087641889841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03753932588026888</v>
+        <v>0.03650883437765969</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1413,19 +1413,19 @@
         <v>3450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7746</v>
+        <v>7718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02637937974412174</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01015775544328802</v>
+        <v>0.01011183668696427</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05923202801787791</v>
+        <v>0.05901594693372376</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1434,19 +1434,19 @@
         <v>6086</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2704</v>
+        <v>2726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11648</v>
+        <v>11653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01803617701674318</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008014073945567721</v>
+        <v>0.008077126868671233</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03451831484399097</v>
+        <v>0.0345323283764041</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>204041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>198919</v>
+        <v>199132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>206005</v>
+        <v>205992</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.987243066199105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9624606741197341</v>
+        <v>0.9634911656223403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9967436997032378</v>
+        <v>0.9966791235811017</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>185</v>
@@ -1484,19 +1484,19 @@
         <v>127327</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>123031</v>
+        <v>123059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129449</v>
+        <v>129455</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9736206202558781</v>
+        <v>0.9736206202558783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.940767971982122</v>
+        <v>0.9409840530662761</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.989842244556712</v>
+        <v>0.9898881633130358</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>416</v>
@@ -1505,19 +1505,19 @@
         <v>331369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>325807</v>
+        <v>325802</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>334751</v>
+        <v>334729</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9819638229832568</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9654816851560091</v>
+        <v>0.9654676716235959</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9919859260544324</v>
+        <v>0.9919228731313288</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>14262</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9248</v>
+        <v>8824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23256</v>
+        <v>22528</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02177331208345309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01411757553975977</v>
+        <v>0.01347095998940473</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03550375941440487</v>
+        <v>0.03439155540038953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1630,19 +1630,19 @@
         <v>14531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9323</v>
+        <v>9085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22308</v>
+        <v>21362</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04021179228622816</v>
+        <v>0.04021179228622815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02579999287376994</v>
+        <v>0.02514092779758356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06173343504944261</v>
+        <v>0.05911521247324692</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1651,19 +1651,19 @@
         <v>28793</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20979</v>
+        <v>20934</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>39041</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02832869558928292</v>
+        <v>0.02832869558928293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02064068453884723</v>
+        <v>0.02059582247437135</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03841083522458651</v>
+        <v>0.03841119017709494</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>640778</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>631784</v>
+        <v>632512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>645792</v>
+        <v>646216</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9782266879165468</v>
+        <v>0.978226687916547</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.964496240585595</v>
+        <v>0.9656084445996104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.98588242446024</v>
+        <v>0.9865290400105954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>496</v>
@@ -1701,19 +1701,19 @@
         <v>346826</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>339049</v>
+        <v>339995</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>352034</v>
+        <v>352272</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9597882077137719</v>
+        <v>0.9597882077137718</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9382665649505573</v>
+        <v>0.940884787526753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9742000071262297</v>
+        <v>0.9748590722024164</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1231</v>
@@ -1725,16 +1725,16 @@
         <v>977356</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>995418</v>
+        <v>995463</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9716713044107171</v>
+        <v>0.971671304410717</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9615891647754131</v>
+        <v>0.9615888098229052</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9793593154611526</v>
+        <v>0.9794041775256287</v>
       </c>
     </row>
     <row r="18">
